--- a/FrictionlessDataCommunitySurveyPublic.xlsx
+++ b/FrictionlessDataCommunitySurveyPublic.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,20 +8,28 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KostBar\Desktop\Frictionless\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{931E55AC-D60E-4470-8081-19DB860A2CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FE5692-E6B5-4559-AE0B-9890F80AAB82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="10440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FrictionlessDataCommunitySurvey" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="123">
   <si>
     <t>Timestamp</t>
   </si>
@@ -299,27 +307,6 @@
     <t>Unsure we should use the Discuss forums more. Sometimes months go by without a post.</t>
   </si>
   <si>
-    <t xml:space="preserve"> English, N/A, German, N/A, N/A</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> English, French</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> English</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N/A, English, Spanish</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> English, French, German, Portuguese, Spanish</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> N/A, French</t>
-  </si>
-  <si>
-    <t xml:space="preserve">N/A, N/A, </t>
-  </si>
-  <si>
     <t>N/A, N/A, English, N/A, German, N/A, N/A, N/A</t>
   </si>
   <si>
@@ -410,13 +397,13 @@
     <t>N/A, N/A, N/A, JavaScript, N/A, N/A, Python, R, N/A, N/A, SQL, Swift</t>
   </si>
   <si>
-    <t>C++, N/A, N/A, JavaScript, N/A, N/A, Python, N/A, N/A, Shell(Bash)</t>
+    <t>C++, N/A, N/A, JavaScript, N/A, N/A, Python, N/A, N/A, Shell (Bash)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1254,10 +1241,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AL16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
@@ -1266,6 +1253,7 @@
     <col min="1" max="1" width="21.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
     <col min="6" max="6" width="70.140625" customWidth="1"/>
     <col min="8" max="8" width="89.7109375" customWidth="1"/>
     <col min="9" max="9" width="21.7109375" customWidth="1"/>
@@ -1396,7 +1384,7 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D2" t="s">
         <v>39</v>
@@ -1405,13 +1393,13 @@
         <v>40</v>
       </c>
       <c r="F2" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="G2" t="s">
         <v>61</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
         <v>48</v>
@@ -1497,7 +1485,7 @@
         <v>66</v>
       </c>
       <c r="C3" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
         <v>43</v>
@@ -1506,13 +1494,13 @@
         <v>60</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G3" t="s">
         <v>61</v>
       </c>
       <c r="H3" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="I3" t="s">
         <v>77</v>
@@ -1592,7 +1580,7 @@
         <v>53</v>
       </c>
       <c r="C4" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D4" t="s">
         <v>39</v>
@@ -1601,13 +1589,13 @@
         <v>67</v>
       </c>
       <c r="F4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
         <v>61</v>
       </c>
       <c r="H4" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
         <v>42</v>
@@ -1693,7 +1681,7 @@
         <v>65</v>
       </c>
       <c r="C5" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D5" t="s">
         <v>39</v>
@@ -1702,13 +1690,13 @@
         <v>54</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
         <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I5" t="s">
         <v>48</v>
@@ -1788,7 +1776,7 @@
         <v>53</v>
       </c>
       <c r="C6" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="D6" t="s">
         <v>39</v>
@@ -1797,13 +1785,13 @@
         <v>54</v>
       </c>
       <c r="F6" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="G6" t="s">
         <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
         <v>48</v>
@@ -1892,7 +1880,7 @@
         <v>58</v>
       </c>
       <c r="C7" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D7" t="s">
         <v>59</v>
@@ -1901,13 +1889,13 @@
         <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G7" t="s">
         <v>61</v>
       </c>
       <c r="H7" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="I7" t="s">
         <v>42</v>
@@ -1981,7 +1969,7 @@
         <v>75</v>
       </c>
       <c r="C8" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="D8" t="s">
         <v>39</v>
@@ -1990,13 +1978,13 @@
         <v>67</v>
       </c>
       <c r="F8" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="G8" t="s">
         <v>76</v>
       </c>
       <c r="H8" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I8" t="s">
         <v>77</v>
@@ -2079,7 +2067,7 @@
         <v>80</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D9" t="s">
         <v>43</v>
@@ -2088,13 +2076,13 @@
         <v>54</v>
       </c>
       <c r="F9" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G9" t="s">
         <v>61</v>
       </c>
       <c r="H9" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I9" t="s">
         <v>48</v>
@@ -2183,7 +2171,7 @@
         <v>66</v>
       </c>
       <c r="C10" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -2192,13 +2180,13 @@
         <v>67</v>
       </c>
       <c r="F10" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
         <v>61</v>
       </c>
       <c r="H10" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I10" t="s">
         <v>48</v>
@@ -2293,7 +2281,7 @@
         <v>85</v>
       </c>
       <c r="C11" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
         <v>39</v>
@@ -2302,13 +2290,13 @@
         <v>40</v>
       </c>
       <c r="F11" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="G11" t="s">
         <v>61</v>
       </c>
       <c r="H11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="I11" t="s">
         <v>64</v>
@@ -2403,7 +2391,7 @@
         <v>65</v>
       </c>
       <c r="C12" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D12" t="s">
         <v>39</v>
@@ -2412,13 +2400,13 @@
         <v>60</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G12" t="s">
         <v>61</v>
       </c>
       <c r="H12" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="I12" t="s">
         <v>42</v>
@@ -2498,7 +2486,7 @@
         <v>46</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D13" t="s">
         <v>39</v>
@@ -2507,13 +2495,13 @@
         <v>40</v>
       </c>
       <c r="F13" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
         <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
         <v>48</v>
@@ -2603,7 +2591,7 @@
         <v>66</v>
       </c>
       <c r="C14" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D14" t="s">
         <v>39</v>
@@ -2612,13 +2600,13 @@
         <v>40</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G14" t="s">
         <v>61</v>
       </c>
       <c r="H14" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="I14" t="s">
         <v>64</v>
@@ -2707,7 +2695,7 @@
         <v>63</v>
       </c>
       <c r="C15" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D15" t="s">
         <v>39</v>
@@ -2716,13 +2704,13 @@
         <v>60</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G15" t="s">
         <v>61</v>
       </c>
       <c r="H15" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="I15" t="s">
         <v>64</v>
@@ -2802,7 +2790,7 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D16" t="s">
         <v>39</v>
@@ -2811,13 +2799,13 @@
         <v>40</v>
       </c>
       <c r="F16" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G16" t="s">
         <v>41</v>
       </c>
       <c r="H16" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="I16" t="s">
         <v>42</v>
@@ -2883,95 +2871,4 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="42.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="39.7109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C2" t="s">
-        <v>92</v>
-      </c>
-      <c r="D2" t="str">
-        <f>_xlfn.CONCAT(B2,C2)</f>
-        <v>N/A, N/A,  English, N/A, German, N/A, N/A</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" t="str">
-        <f t="shared" ref="D3:D7" si="0">_xlfn.CONCAT(B3,C3)</f>
-        <v>N/A, N/A,  English, French</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>98</v>
-      </c>
-      <c r="C4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D4" t="str">
-        <f t="shared" si="0"/>
-        <v>N/A, N/A,  English</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" t="s">
-        <v>95</v>
-      </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>N/A, N/A,  N/A, English, Spanish</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" t="s">
-        <v>96</v>
-      </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>N/A, N/A,  English, French, German, Portuguese, Spanish</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>98</v>
-      </c>
-      <c r="C7" t="s">
-        <v>97</v>
-      </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>N/A, N/A,  N/A, French</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>